--- a/src/utils/life.xlsx
+++ b/src/utils/life.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Desktop\Coding\new.myapp\src\libs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Desktop\new.myapp\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C67D98A-09D3-434D-B132-DA7F69830A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E57965-B578-43EE-8D08-EEA317C3F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="-19330" windowWidth="17850" windowHeight="15320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3070" yWindow="-20720" windowWidth="28800" windowHeight="15320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="daily" sheetId="1" r:id="rId1"/>
     <sheet name="todos" sheetId="2" r:id="rId2"/>
     <sheet name="prj_milestones" sheetId="3" r:id="rId3"/>
-    <sheet name="memories" sheetId="4" r:id="rId4"/>
+    <sheet name="routines" sheetId="5" r:id="rId4"/>
+    <sheet name="memories" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="projectMilestones">prj_milestones!$A$1:$F$34</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -294,6 +295,57 @@
   </si>
   <si>
     <t>Project Priority</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>Sleep Score</t>
+  </si>
+  <si>
+    <t>Project Work</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Calories %</t>
+  </si>
+  <si>
+    <t>Mood Score</t>
+  </si>
+  <si>
+    <t>Work Score</t>
+  </si>
+  <si>
+    <t>Daily Score</t>
+  </si>
+  <si>
+    <t>Daily Summary</t>
+  </si>
+  <si>
+    <t>66a0463b9e0e2a2c9efaa446</t>
+  </si>
+  <si>
+    <t>Talked to Lane</t>
+  </si>
+  <si>
+    <t>Made good coding progress, talked to Lane, picked out JDs to apply to</t>
+  </si>
+  <si>
+    <t>Productive with coding, but need to apply to jobs</t>
+  </si>
+  <si>
+    <t>This was maybe the first day it sank in that Aircall is not hiring me.  I filed for unemployment, we'll see if I get it. I'm hoping having this app will help me be more productive.  I'm also excited to see Holly tomorrow.</t>
+  </si>
+  <si>
+    <t>66a11284fe412d1d2ad795b6</t>
+  </si>
+  <si>
+    <t>Ok day, not very active, didn't eat a lot and had to reschedule with Holly.  But also made plans with Alex for Sunday</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -403,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,6 +474,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,7 +1040,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1585,6 +1638,192 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615A42A7-1A19-4322-8BDE-9014EE9FDF31}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45496</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="14">
+        <v>45497</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
